--- a/Design.xlsx
+++ b/Design.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\RunRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{39A6F292-A695-4B09-B7A8-D9C70128EA83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{003C781B-70C0-479F-8166-1C0EC9273BB6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12135" xr2:uid="{F3B62DAB-B752-4B50-BC83-9A55975DA8C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12135" activeTab="1" xr2:uid="{F3B62DAB-B752-4B50-BC83-9A55975DA8C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Direction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>跑道</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,78 @@
   </si>
   <si>
     <t>BridgeSmallPlug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-90,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,90,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>euler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quaternion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-360</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +294,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,12 +312,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -245,8 +406,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DCB1BD-3801-4573-8A95-D9DF21AF7DF9}">
   <dimension ref="A2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1206,4 +1397,402 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31A0616-A54E-4B57-8D7B-AE163109C808}">
+  <dimension ref="B1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.70710680000000004</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-90</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-0.70710680000000004</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>180</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-180</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>270</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.70710680000000004</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-270</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-0.70710680000000004</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-0.70710680000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22">
+        <v>-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Design.xlsx
+++ b/Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\RunRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{003C781B-70C0-479F-8166-1C0EC9273BB6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08D4A51A-81A7-4BB1-B7FD-310C94CCAD56}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12135" activeTab="1" xr2:uid="{F3B62DAB-B752-4B50-BC83-9A55975DA8C7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>跑道</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,18 +227,6 @@
   </si>
   <si>
     <t>Back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-90,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,90,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,9 +394,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +429,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1401,395 +1395,376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31A0616-A54E-4B57-8D7B-AE163109C808}">
-  <dimension ref="B1:J40"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
         <v>90</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
         <v>0.70710680000000004</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
         <v>0.70710680000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
         <v>-90</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
         <v>-0.70710680000000004</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <v>0.70710680000000004</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
         <v>180</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
         <v>-180</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>-1</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
         <v>270</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.70710680000000004</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
         <v>-0.70710680000000004</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
         <v>-270</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>-0.70710680000000004</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
         <v>-0.70710680000000004</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="J15" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
         <v>47</v>
       </c>
-      <c r="J16" t="s">
+      <c r="F16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="J17" t="s">
+      <c r="F17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
         <v>49</v>
       </c>
-      <c r="J18" t="s">
+      <c r="F18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
         <v>47</v>
       </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="F21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F22">
-        <v>-1</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="I22">
-        <v>-2</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="F22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="F23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
         <v>47</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="F27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F28">
-        <v>-1</v>
-      </c>
-      <c r="G28" t="s">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" t="s">
         <v>48</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="F28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" t="s">
         <v>49</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="F29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D16:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
